--- a/saved_schedules/it_service_center_current.xlsx
+++ b/saved_schedules/it_service_center_current.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,24 +470,92 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jack Green, Daniel Senn</t>
+          <t>Daniel Senn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mario Sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brooke Kazmierczak</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Patrick Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>5:00 PM</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Patrick Testing, Krish Chawla</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Zion Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Brooke Kazmierczak</t>
         </is>
       </c>
     </row>
@@ -530,34 +598,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Billy Happy</t>
+          <t>Tatiana Mata Diaz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tatiana Mata Diaz</t>
+          <t>Billy Happy</t>
         </is>
       </c>
     </row>
@@ -572,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,29 +690,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gissel O Rosa, Chris Test</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4:00 PM</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5:00 PM</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Regenae Walkters, Olivia Schindler</t>
+          <t>Jash Hitesh Parekh</t>
         </is>
       </c>
     </row>
@@ -659,7 +710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,36 +743,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sebastian Hurd, Matthew Chase</t>
+          <t>Alan Haim</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nikko Sandgren, Todd chop</t>
+          <t>Thomas Mack</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -731,7 +782,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Regenae Walkters, Thomas Mack</t>
+          <t>Daniel Finn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1:00 PM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nikko Sandgren</t>
         </is>
       </c>
     </row>
@@ -746,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,51 +842,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9:00 AM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>4:00 PM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mario Sell, Thomas Mack</t>
+          <t>Jash Hitesh Parekh</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alan Haim, Daniel Finn</t>
+          <t>Mario Sell</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jullian Kemp, Olivia Schindler</t>
+          <t>Matthew Chase</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gissel O Rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chris Test</t>
         </is>
       </c>
     </row>
@@ -833,7 +935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,41 +973,92 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Todd chop, Matthew Chase</t>
+          <t>Todd chop</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gissel O Rosa, Jullian Kemp</t>
+          <t>Sebastian Hurd</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brooke Kazmierczak</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jullian Kemp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>5:00 PM</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Olivia Schindler, Regenae Walkters</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Olivia Schindler</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Regenae Walkters</t>
         </is>
       </c>
     </row>
@@ -920,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,46 +1106,97 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mario Sell, Daniel Senn</t>
+          <t>Jack Green</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chris Test, Jack Green</t>
+          <t>Krish Chawla</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>4:00 PM</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Patrick Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Daniel Senn</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>5:00 PM</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Zion Williams, Krish Chawla</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Zion Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Greg Aivaliotis</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,17 +1249,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Billy Happy</t>
+          <t>Tatiana Mata Diaz</t>
         </is>
       </c>
     </row>
@@ -1067,17 +1271,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tatiana Mata Diaz</t>
+          <t>Billy Happy</t>
         </is>
       </c>
     </row>
@@ -1116,34 +1320,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gissel O Rosa, Chris Test</t>
+          <t>Jash Hitesh Parekh</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>4:00 PM</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5:00 PM</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regenae Walkters, Olivia Schindler</t>
+          <t>Jash Hitesh Parekh</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1364,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mario Sell, Thomas Mack</t>
+          <t>Mario Sell</t>
         </is>
       </c>
     </row>
@@ -1177,17 +1381,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Alan Haim, Daniel Finn</t>
+          <t>Matthew Chase</t>
         </is>
       </c>
     </row>
@@ -1199,39 +1403,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jullian Kemp, Olivia Schindler</t>
+          <t>Gissel O Rosa</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sebastian Hurd, Matthew Chase</t>
+          <t>Chris Test</t>
         </is>
       </c>
     </row>
@@ -1243,17 +1447,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nikko Sandgren, Todd chop</t>
+          <t>Alan Haim</t>
         </is>
       </c>
     </row>
@@ -1265,51 +1469,51 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Regenae Walkters, Thomas Mack</t>
+          <t>Thomas Mack</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9:00 AM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jack Green, Daniel Senn</t>
+          <t>Daniel Finn</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1319,7 +1523,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Patrick Testing, Krish Chawla</t>
+          <t>Nikko Sandgren</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1545,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Todd chop, Matthew Chase</t>
+          <t>Todd chop</t>
         </is>
       </c>
     </row>
@@ -1353,17 +1557,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gissel O Rosa, Jullian Kemp</t>
+          <t>Sebastian Hurd</t>
         </is>
       </c>
     </row>
@@ -1375,83 +1579,347 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Olivia Schindler, Regenae Walkters</t>
+          <t>Brooke Kazmierczak</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mario Sell, Daniel Senn</t>
+          <t>Jullian Kemp</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4:00 PM</t>
+          <t>5:00 PM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chris Test, Jack Green</t>
+          <t>Olivia Schindler</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Regenae Walkters</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Saturday</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9:00 AM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Jack Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9:00 AM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Krish Chawla</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>4:00 PM</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Patrick Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Daniel Senn</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>5:00 PM</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Zion Williams, Krish Chawla</t>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Zion Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Greg Aivaliotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9:00 AM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Daniel Senn</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9:00 AM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mario Sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Brooke Kazmierczak</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Patrick Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zion Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5:00 PM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Brooke Kazmierczak</t>
         </is>
       </c>
     </row>
